--- a/input data/mod_variables.xlsx
+++ b/input data/mod_variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="158">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">var_type</t>
   </si>
   <si>
+    <t xml:space="preserve">cutoff</t>
+  </si>
+  <si>
     <t xml:space="preserve">age</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t xml:space="preserve">Obesity</t>
   </si>
   <si>
+    <t xml:space="preserve">BMI &gt; 30 kg/m2</t>
+  </si>
+  <si>
     <t xml:space="preserve">grading_obesity</t>
   </si>
   <si>
@@ -169,10 +175,13 @@
     <t xml:space="preserve">Weight\nloss @V0</t>
   </si>
   <si>
+    <t xml:space="preserve">≥ 1 kg</t>
+  </si>
+  <si>
     <t xml:space="preserve">dyspnoe_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Dyspnoe @V0</t>
+    <t xml:space="preserve">Dyspnea @V0</t>
   </si>
   <si>
     <t xml:space="preserve">cough_rec</t>
@@ -223,6 +232,9 @@
     <t xml:space="preserve">Impaired\nperformance @V0</t>
   </si>
   <si>
+    <t xml:space="preserve">ECOG ≥ 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">sleep_disorder_rec</t>
   </si>
   <si>
@@ -238,7 +250,7 @@
     <t xml:space="preserve">treat_antiplat_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Anti-platellet @V0</t>
+    <t xml:space="preserve">Anti-platelet @V0</t>
   </si>
   <si>
     <t xml:space="preserve">treat_anticoag_rec</t>
@@ -280,6 +292,9 @@
     <t xml:space="preserve">Anemia @V1</t>
   </si>
   <si>
+    <t xml:space="preserve">Male: Hb &lt; 14 g/dL, Female: Hb &lt; 12 g/dL</t>
+  </si>
+  <si>
     <t xml:space="preserve">ferritin</t>
   </si>
   <si>
@@ -292,6 +307,9 @@
     <t xml:space="preserve">Elevated\nferritin @V1</t>
   </si>
   <si>
+    <t xml:space="preserve">Male: &gt; 300 ng/mL, Female: &gt; 150 ng/ml</t>
+  </si>
+  <si>
     <t xml:space="preserve">sTFR</t>
   </si>
   <si>
@@ -310,22 +328,34 @@
     <t xml:space="preserve">Elevated\nNTproBNP @V1</t>
   </si>
   <si>
+    <t xml:space="preserve">&gt; 125 pg/mL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ddimerelv_rec</t>
   </si>
   <si>
     <t xml:space="preserve">Elevated\nD-dimer @V1</t>
   </si>
   <si>
+    <t xml:space="preserve">&gt; 500 pg/mL FEU</t>
+  </si>
+  <si>
     <t xml:space="preserve">CRP_elv_rec</t>
   </si>
   <si>
     <t xml:space="preserve">Elevated\nCRP @V1</t>
   </si>
   <si>
+    <t xml:space="preserve">&gt; 0.5 mg/dL</t>
+  </si>
+  <si>
     <t xml:space="preserve">IL6_elv_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Elevated\nIL6 @V1</t>
+    <t xml:space="preserve">Elevated\nIL-6 @V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 7 pg/mL</t>
   </si>
   <si>
     <t xml:space="preserve">ferritin_index</t>
@@ -340,10 +370,7 @@
     <t xml:space="preserve">Iron\ndeficiency @V1</t>
   </si>
   <si>
-    <t xml:space="preserve">lung_function_impaired_rec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung function\nimpairment @V1</t>
+    <t xml:space="preserve">TF-Saturation &lt; 15%</t>
   </si>
   <si>
     <t xml:space="preserve">age_65</t>
@@ -352,10 +379,16 @@
     <t xml:space="preserve">Age\nover 65</t>
   </si>
   <si>
+    <t xml:space="preserve">&gt; 65 years</t>
+  </si>
+  <si>
     <t xml:space="preserve">hosp_7d</t>
   </si>
   <si>
-    <t xml:space="preserve">Over 7 days\nhospitalized @V0</t>
+    <t xml:space="preserve">Hospitalized\n&gt;7 days @V0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 7 days</t>
   </si>
   <si>
     <t xml:space="preserve">comorb_present</t>
@@ -364,10 +397,16 @@
     <t xml:space="preserve">Any comorbidity</t>
   </si>
   <si>
+    <t xml:space="preserve">&gt; 0 comorbidities</t>
+  </si>
+  <si>
     <t xml:space="preserve">comorb_3</t>
   </si>
   <si>
-    <t xml:space="preserve">Over 3\ncomorbidities</t>
+    <t xml:space="preserve">&gt;3\ncomorbidities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 3 comorbidities</t>
   </si>
   <si>
     <t xml:space="preserve">overweight</t>
@@ -376,10 +415,16 @@
     <t xml:space="preserve">Overweight\nor obesity</t>
   </si>
   <si>
+    <t xml:space="preserve">BMI &gt; 25 kg/m2</t>
+  </si>
+  <si>
     <t xml:space="preserve">sympt_6</t>
   </si>
   <si>
-    <t xml:space="preserve">Over 6\nsymptoms @V0</t>
+    <t xml:space="preserve">&gt;6\nsymptoms @V0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 6 symptoms</t>
   </si>
   <si>
     <t xml:space="preserve">sympt_present</t>
@@ -388,16 +433,49 @@
     <t xml:space="preserve">Persistent symptoms @V1</t>
   </si>
   <si>
+    <t xml:space="preserve">&gt; 0 symptoms @V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ab_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti-S1/S2 IgG\nQ1 @V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0, 312] BAU/ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ab_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti-S1/S2 IgG\nQ2 @V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(312, 644] BAU/ml</t>
+  </si>
+  <si>
     <t xml:space="preserve">ab_50</t>
   </si>
   <si>
-    <t xml:space="preserve">Anti-S1/S2 IgG\n&gt; 50 perct @V1</t>
+    <t xml:space="preserve">Anti-S1/S2 IgG\nQ3 @V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(644, 975] BAU/ml</t>
   </si>
   <si>
     <t xml:space="preserve">ab_75</t>
   </si>
   <si>
-    <t xml:space="preserve">Anti-S1/S2 IgG\n&gt; 75 perct @V1</t>
+    <t xml:space="preserve">Anti-S1/S2 IgG\nQ4 @V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 975 BAU/ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pat_group_G1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambulatory @V0</t>
   </si>
   <si>
     <t xml:space="preserve">pat_group_G2</t>
@@ -409,7 +487,7 @@
     <t xml:space="preserve">pat_group_G3</t>
   </si>
   <si>
-    <t xml:space="preserve">Oxygen therapy\nor ICU @V0</t>
+    <t xml:space="preserve">Oxygen therapy @V0</t>
   </si>
   <si>
     <t xml:space="preserve">pat_group_G4</t>
@@ -425,7 +503,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -453,11 +531,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -502,7 +575,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -517,10 +590,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -540,16 +609,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -565,159 +635,165 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,735 +805,823 @@
         <v>0</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>81</v>
+      <c r="C40" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/input data/mod_variables.xlsx
+++ b/input data/mod_variables.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">grading_obesity</t>
   </si>
   <si>
-    <t xml:space="preserve">Obesity grade\n@V0</t>
+    <t xml:space="preserve">Obesity grade, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">factor</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">days_hosp</t>
   </si>
   <si>
-    <t xml:space="preserve">Days\nhospitalized @V0</t>
+    <t xml:space="preserve">Days hospitalized, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">NrComorb</t>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">endocrine_metabolic_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Metabolic\ndisorders</t>
+    <t xml:space="preserve">Metabolic disorders</t>
   </si>
   <si>
     <t xml:space="preserve">hypercholesterolemia_rec</t>
@@ -166,13 +166,13 @@
     <t xml:space="preserve">immune_deficiency_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Immune\ndeficiency</t>
+    <t xml:space="preserve">Immune deficiency</t>
   </si>
   <si>
     <t xml:space="preserve">weight_change_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Weight\nloss @V0</t>
+    <t xml:space="preserve">Weight loss, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">≥ 1 kg</t>
@@ -181,55 +181,55 @@
     <t xml:space="preserve">dyspnoe_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Dyspnea @V0</t>
+    <t xml:space="preserve">Dyspnea, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">cough_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Cough @V0</t>
+    <t xml:space="preserve">Cough, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">fever_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Fever @V0</t>
+    <t xml:space="preserve">Fever, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">night_sweat_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Night sweat @V0</t>
+    <t xml:space="preserve">Night sweat, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">pain_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain @V0</t>
+    <t xml:space="preserve">Pain, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">GI_sympt_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">GI\nsymptoms @V0</t>
+    <t xml:space="preserve">GI symptoms, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">anosmia_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Anosmia @V0</t>
+    <t xml:space="preserve">Anosmia, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">ECOG</t>
   </si>
   <si>
-    <t xml:space="preserve">ECOG @V0</t>
+    <t xml:space="preserve">ECOG, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">ECOG_imp_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Impaired\nperformance @V0</t>
+    <t xml:space="preserve">Impaired performance, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">ECOG ≥ 1</t>
@@ -238,31 +238,31 @@
     <t xml:space="preserve">sleep_disorder_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Sleep\ndisorders @V0</t>
+    <t xml:space="preserve">Sleep disorders, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">treat_antiinfec_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Anti-infectives @V0</t>
+    <t xml:space="preserve">Anti-infectives, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">treat_antiplat_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Anti-platelet @V0</t>
+    <t xml:space="preserve">Anti-platelet, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">treat_anticoag_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Anti-coagulatives @V0</t>
+    <t xml:space="preserve">Anti-coagulatives, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">treat_immunosuppr_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Immunosuppression @V0</t>
+    <t xml:space="preserve">Immunosuppression, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">pat_group</t>
@@ -271,25 +271,25 @@
     <t xml:space="preserve">sympt_no</t>
   </si>
   <si>
-    <t xml:space="preserve"># Self-reported\nsymptoms @V0</t>
+    <t xml:space="preserve"># Self-reported symptoms, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">SarsCov2_IgG</t>
   </si>
   <si>
-    <t xml:space="preserve">Anti-S1/S2 IgG @V1</t>
+    <t xml:space="preserve">Anti-S1/S2 IgG, 60-day visit</t>
   </si>
   <si>
     <t xml:space="preserve">Hb</t>
   </si>
   <si>
-    <t xml:space="preserve">Hb @V1</t>
+    <t xml:space="preserve">Hb, 60-day visit</t>
   </si>
   <si>
     <t xml:space="preserve">anemia_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Anemia @V1</t>
+    <t xml:space="preserve">Anemia, 60-day visit</t>
   </si>
   <si>
     <t xml:space="preserve">Male: Hb &lt; 14 g/dL, Female: Hb &lt; 12 g/dL</t>
@@ -298,13 +298,13 @@
     <t xml:space="preserve">ferritin</t>
   </si>
   <si>
-    <t xml:space="preserve">Ferritin @V1</t>
+    <t xml:space="preserve">Ferritin, 60-day visit</t>
   </si>
   <si>
     <t xml:space="preserve">ferr_elv_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Elevated\nferritin @V1</t>
+    <t xml:space="preserve">Elevated ferritin, 60-day visit</t>
   </si>
   <si>
     <t xml:space="preserve">Male: &gt; 300 ng/mL, Female: &gt; 150 ng/ml</t>
@@ -313,19 +313,19 @@
     <t xml:space="preserve">sTFR</t>
   </si>
   <si>
-    <t xml:space="preserve">sTFR @V1</t>
+    <t xml:space="preserve">sTFR, 60-day visit</t>
   </si>
   <si>
     <t xml:space="preserve">Hepcidin</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepcidin @V1</t>
+    <t xml:space="preserve">Hepcidin, 60-day visit</t>
   </si>
   <si>
     <t xml:space="preserve">NTelv_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Elevated\nNTproBNP @V1</t>
+    <t xml:space="preserve">Elevated NTproBNP, 60-day visit</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; 125 pg/mL</t>
@@ -334,7 +334,7 @@
     <t xml:space="preserve">Ddimerelv_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Elevated\nD-dimer @V1</t>
+    <t xml:space="preserve">Elevated D-dimer, 60-day visit</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; 500 pg/mL FEU</t>
@@ -343,7 +343,7 @@
     <t xml:space="preserve">CRP_elv_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Elevated\nCRP @V1</t>
+    <t xml:space="preserve">Elevated CRP, 60-day visit</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; 0.5 mg/dL</t>
@@ -352,7 +352,7 @@
     <t xml:space="preserve">IL6_elv_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Elevated\nIL-6 @V1</t>
+    <t xml:space="preserve">Elevated IL-6, 60-day visit</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; 7 pg/mL</t>
@@ -361,13 +361,13 @@
     <t xml:space="preserve">ferritin_index</t>
   </si>
   <si>
-    <t xml:space="preserve">Ferritin\nIndex @V1</t>
+    <t xml:space="preserve">Ferritin Index, 60-day visit</t>
   </si>
   <si>
     <t xml:space="preserve">iron_deficiency_30_rec</t>
   </si>
   <si>
-    <t xml:space="preserve">Iron\ndeficiency @V1</t>
+    <t xml:space="preserve">Iron deficiency, 60-day visit</t>
   </si>
   <si>
     <t xml:space="preserve">TF-Saturation &lt; 15%</t>
@@ -376,7 +376,7 @@
     <t xml:space="preserve">age_65</t>
   </si>
   <si>
-    <t xml:space="preserve">Age\nover 65</t>
+    <t xml:space="preserve">Age over 65</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; 65 years</t>
@@ -385,7 +385,7 @@
     <t xml:space="preserve">hosp_7d</t>
   </si>
   <si>
-    <t xml:space="preserve">Hospitalized\n&gt;7 days @V0</t>
+    <t xml:space="preserve">Hospitalized &gt;7 days, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; 7 days</t>
@@ -403,7 +403,7 @@
     <t xml:space="preserve">comorb_3</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;3\ncomorbidities</t>
+    <t xml:space="preserve">&gt;3 comorbidities</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; 3 comorbidities</t>
@@ -412,7 +412,7 @@
     <t xml:space="preserve">overweight</t>
   </si>
   <si>
-    <t xml:space="preserve">Overweight\nor obesity</t>
+    <t xml:space="preserve">Overweight or obesity</t>
   </si>
   <si>
     <t xml:space="preserve">BMI &gt; 25 kg/m2</t>
@@ -421,7 +421,7 @@
     <t xml:space="preserve">sympt_6</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;6\nsymptoms @V0</t>
+    <t xml:space="preserve">&gt;6 symptoms, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; 6 symptoms</t>
@@ -430,16 +430,16 @@
     <t xml:space="preserve">sympt_present</t>
   </si>
   <si>
-    <t xml:space="preserve">Persistent symptoms @V1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt; 0 symptoms @V3</t>
+    <t xml:space="preserve">Persistent symptoms, 60-day visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 0 symptoms at 180-day visit</t>
   </si>
   <si>
     <t xml:space="preserve">ab_0</t>
   </si>
   <si>
-    <t xml:space="preserve">Anti-S1/S2 IgG\nQ1 @V1</t>
+    <t xml:space="preserve">Anti-S1/S2 IgG Q1, 60-day visit</t>
   </si>
   <si>
     <t xml:space="preserve">(0, 312] BAU/ml</t>
@@ -448,7 +448,7 @@
     <t xml:space="preserve">ab_25</t>
   </si>
   <si>
-    <t xml:space="preserve">Anti-S1/S2 IgG\nQ2 @V1</t>
+    <t xml:space="preserve">Anti-S1/S2 IgG Q2, 60-day visit</t>
   </si>
   <si>
     <t xml:space="preserve">(312, 644] BAU/ml</t>
@@ -457,7 +457,7 @@
     <t xml:space="preserve">ab_50</t>
   </si>
   <si>
-    <t xml:space="preserve">Anti-S1/S2 IgG\nQ3 @V1</t>
+    <t xml:space="preserve">Anti-S1/S2 IgG Q3, 60-day visit</t>
   </si>
   <si>
     <t xml:space="preserve">(644, 975] BAU/ml</t>
@@ -466,7 +466,7 @@
     <t xml:space="preserve">ab_75</t>
   </si>
   <si>
-    <t xml:space="preserve">Anti-S1/S2 IgG\nQ4 @V1</t>
+    <t xml:space="preserve">Anti-S1/S2 IgG Q4, 60-day visit</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; 975 BAU/ml</t>
@@ -475,25 +475,25 @@
     <t xml:space="preserve">pat_group_G1</t>
   </si>
   <si>
-    <t xml:space="preserve">Ambulatory @V0</t>
+    <t xml:space="preserve">Ambulatory, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">pat_group_G2</t>
   </si>
   <si>
-    <t xml:space="preserve">Hospitalized @V0</t>
+    <t xml:space="preserve">Hospitalized, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">pat_group_G3</t>
   </si>
   <si>
-    <t xml:space="preserve">Oxygen therapy @V0</t>
+    <t xml:space="preserve">Oxygen therapy, acute COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">pat_group_G4</t>
   </si>
   <si>
-    <t xml:space="preserve">ICU @V0</t>
+    <t xml:space="preserve">ICU, acute COVID-19</t>
   </si>
 </sst>
 </file>
@@ -611,11 +611,11 @@
   </sheetPr>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C64" activeCellId="2" sqref="C40:C52 C59:C63 C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.32"/>
@@ -1625,9 +1625,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="Obesity grade\n@V0"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
